--- a/_Story/Part 1/Act1.xlsx
+++ b/_Story/Part 1/Act1.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Act1" sheetId="1" r:id="rId1"/>
+    <sheet name="List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="79">
   <si>
     <t>Center</t>
   </si>
@@ -46,44 +47,25 @@
     <t>Scene Laboratory</t>
   </si>
   <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>Skull</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
     <t>??????</t>
   </si>
   <si>
-    <t>Skull as ???</t>
-  </si>
-  <si>
     <t>BOOO!!</t>
   </si>
   <si>
-    <t>Cris</t>
-  </si>
-  <si>
     <t>My child, the day of your exam has come. In the evening, you will already be a recognized master and we can celebrate.</t>
   </si>
   <si>
-    <t>фыв</t>
-  </si>
-  <si>
-    <t>ввввв</t>
-  </si>
-  <si>
-    <t>ааааа</t>
-  </si>
-  <si>
     <t>实验室</t>
   </si>
   <si>
-    <t>ПРОЛОГт (Янус рассказывает)
-Карта.
+    <t>Scene World</t>
+  </si>
+  <si>
+    <t>Карта.
 Рассказ о стране.
 Война с орками
 Гибель героя-короля и его первенца в войне с орками
@@ -94,7 +76,190 @@
 О ученике Януса Кристофере и его звании Магистра в этом ордене</t>
   </si>
   <si>
-    <t>Scene World</t>
+    <t>Scene Corridors of the University</t>
+  </si>
+  <si>
+    <t>Inessa</t>
+  </si>
+  <si>
+    <t>Positions</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Cristopher</t>
+  </si>
+  <si>
+    <t>Graugalorafor</t>
+  </si>
+  <si>
+    <t>Karim</t>
+  </si>
+  <si>
+    <t>Vargus</t>
+  </si>
+  <si>
+    <t>Tiir</t>
+  </si>
+  <si>
+    <t>Arguz</t>
+  </si>
+  <si>
+    <t>Vacela</t>
+  </si>
+  <si>
+    <t>Morven</t>
+  </si>
+  <si>
+    <t>Hurga</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Кристофер гуляет по ордену с ГГ рассказывая о том, чему служит орден познающих и о прошлых магистрах</t>
+  </si>
+  <si>
+    <t>Кристофер датит ГГ книгу</t>
+  </si>
+  <si>
+    <t>ГГ выдаёт классическое "Па-а-ап! Ну я уже не маленький/ая!"</t>
+  </si>
+  <si>
+    <t>Варгус?! Не появляйся так неожиданно!</t>
+  </si>
+  <si>
+    <t>Не волнуйся. Я не собираюсь делать поблажки своей дочурке. Она будет сдавать экзамен по всей строгости.</t>
+  </si>
+  <si>
+    <t>Ну разумеется. Как же может быть иначе?</t>
+  </si>
+  <si>
+    <t>Ах! Архимагистр! Здравствуйте! Вижу вы даёте наставления дочери перед её экзаменом. Как мило. Но, разве это так нужно? Уж своему отцу то она легко сдаст экзамен.</t>
+  </si>
+  <si>
+    <t>А надо не зевать, юная леди. Вот для меня этот экзамен был действительно сложным. Помню как не мог его сдать 3 раза.</t>
+  </si>
+  <si>
+    <t>My child, the day of your exam has come.</t>
+  </si>
+  <si>
+    <t>Ну и заместитель у тебя отец. Как же он мне не нравится.</t>
+  </si>
+  <si>
+    <t>Может характер у него и не очень, но он отлично умеет справляться с бумажками. Без него, я не смог бы заниматься своими исследованиями.</t>
+  </si>
+  <si>
+    <t>Не советую тебе сейчас рассуждать о Варгусе. Тебе надо готовиться! Помнишь? Завтра экзамен.</t>
+  </si>
+  <si>
+    <t>Ага… Интересно, а ему как? Нравится "справляться с бумажками"?</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>Ой! Извините мне уже пора. Надо готовиться к... очень важдому событию.</t>
+  </si>
+  <si>
+    <t>…разве? Какой экзамен?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да да. Очень смешно. Я верю, что ты сможешь сдать с первого раза. Но, пожалуйста, отнесись к подготовке серьёзнее! </t>
+  </si>
+  <si>
+    <t>Scene Inessa's room</t>
+  </si>
+  <si>
+    <t>Ну раз папенька просит, загляну в его книгу.</t>
+  </si>
+  <si>
+    <t>А вот и утро. Ну чтож, пора на экзамен</t>
+  </si>
+  <si>
+    <t>Доброго утра отец. Ну что? Я готова побыстрее сдать этот твой экзамен и после пойдём праздновать.</t>
+  </si>
+  <si>
+    <t>Ина! Что за неуважение к традициям?</t>
+  </si>
+  <si>
+    <t>Сегодня состоится экзамен на звание Магистра Ордена Познающих. Экзаменуемый Инесса Кристоферна Манн. Вы готовы к сдаче?</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>Gloomy</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Dreaming</t>
+  </si>
+  <si>
+    <t>Helpless</t>
+  </si>
+  <si>
+    <t>Так точно!</t>
+  </si>
+  <si>
+    <t>Сколько всего. Может стоит сделать шпаргалку к завтрашнему экзамену?</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Особенно зная, что принимать будешь ты.</t>
+  </si>
+  <si>
+    <t>Ах да. Признаюсь, я всегда был очень мягок с тобой. Поэтому я принял тяжелое решение и экзамен будет принимать другой архимагистр, а точнее бывший архимагистр.</t>
+  </si>
+  <si>
+    <t>Что?</t>
+  </si>
+  <si>
+    <t>Знакомься. Это первый архимагистр нашего ордена. Сэр Граугалорафор!</t>
+  </si>
+  <si>
+    <t>Простите, что?</t>
+  </si>
+  <si>
+    <t>Череп? Летающий? Говорящий? Отец, что происходит?</t>
+  </si>
+  <si>
+    <t>Отец явно остался доволен произведённым эффектом.</t>
+  </si>
+  <si>
+    <t>ПРИВЕТСТВУЮ СМЕРТНАЯ!!!</t>
+  </si>
+  <si>
+    <t>Дело в том, что во время своих исследований, я случайно наткнулся на магический сигнал из катакомб нашего ордена. По сигналу я вышел на гроб первого архимагистра, внутри которого вот уже почти 700 лет томился сэр Граугалорафор. Оказывается наш основатель успешно провёл ритуал бессмертия, но из-за затраченных на ритуал сил, не мог двигаться целый год. За это время его успели похоронить.</t>
+  </si>
+  <si>
+    <t>Вы даже не представляете! Оказывается побочным эффектом заклинания является то, что бессмертной остаётся только голова!</t>
+  </si>
+  <si>
+    <t>Doubt</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>А он точно сможет принять у меня экзамен? У него всё в порядке с головой?</t>
   </si>
 </sst>
 </file>
@@ -238,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +583,74 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -534,6 +765,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -579,14 +825,36 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -929,131 +1197,826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="6" width="50.85546875" style="1" customWidth="1"/>
-    <col min="7" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="50.85546875" style="3" customWidth="1"/>
+    <col min="9" max="16" width="9.140625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="F38" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="D45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$D$3:$D$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E23:E24 E26 E4:E21 E28:E55</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$A$3:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B55</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$A$4:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C55</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$B$3:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D55</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_Story/Part 1/Act1.xlsx
+++ b/_Story/Part 1/Act1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="117">
   <si>
     <t>Center</t>
   </si>
@@ -142,12 +142,6 @@
     <t>Ну разумеется. Как же может быть иначе?</t>
   </si>
   <si>
-    <t>Ах! Архимагистр! Здравствуйте! Вижу вы даёте наставления дочери перед её экзаменом. Как мило. Но, разве это так нужно? Уж своему отцу то она легко сдаст экзамен.</t>
-  </si>
-  <si>
-    <t>А надо не зевать, юная леди. Вот для меня этот экзамен был действительно сложным. Помню как не мог его сдать 3 раза.</t>
-  </si>
-  <si>
     <t>My child, the day of your exam has come.</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>Ну раз папенька просит, загляну в его книгу.</t>
   </si>
   <si>
-    <t>А вот и утро. Ну чтож, пора на экзамен</t>
-  </si>
-  <si>
     <t>Доброго утра отец. Ну что? Я готова побыстрее сдать этот твой экзамен и после пойдём праздновать.</t>
   </si>
   <si>
@@ -244,9 +235,6 @@
     <t>ПРИВЕТСТВУЮ СМЕРТНАЯ!!!</t>
   </si>
   <si>
-    <t>Дело в том, что во время своих исследований, я случайно наткнулся на магический сигнал из катакомб нашего ордена. По сигналу я вышел на гроб первого архимагистра, внутри которого вот уже почти 700 лет томился сэр Граугалорафор. Оказывается наш основатель успешно провёл ритуал бессмертия, но из-за затраченных на ритуал сил, не мог двигаться целый год. За это время его успели похоронить.</t>
-  </si>
-  <si>
     <t>Вы даже не представляете! Оказывается побочным эффектом заклинания является то, что бессмертной остаётся только голова!</t>
   </si>
   <si>
@@ -260,6 +248,132 @@
   </si>
   <si>
     <t>А он точно сможет принять у меня экзамен? У него всё в порядке с головой?</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>Сэр Граугалорафор абсолютно точно знает всё, что нужно для экзамена. Я проверял.</t>
+  </si>
+  <si>
+    <t>За это время его успели похоронить.</t>
+  </si>
+  <si>
+    <t>Дело в том, что во время своих исследований, я случайно наткнулся на магический сигнал из катакомб нашего ордена. По сигналу я вышел на гроб первого архимагистра, внутри которого вот уже почти 700 лет томился сэр Граугалорафор. Оказывается наш основатель успешно провёл ритуал бессмертия, но из-за затраченных на ритуал сил, не мог двигаться целый год.</t>
+  </si>
+  <si>
+    <t>Вот в моё время все носили нормальные имена: "Граугалорагран", "Дизоаунаминаболь"!</t>
+  </si>
+  <si>
+    <t>Не то что сейчас. Инесса, Кристофер… обрубки какието. Нет величия в ваших именах!</t>
+  </si>
+  <si>
+    <t>Disgust</t>
+  </si>
+  <si>
+    <t>[医][医][医][医][医]</t>
+  </si>
+  <si>
+    <t>На данный момент о Граугалорафоре знают лишь трое. Мы с тобой, да Варгус.</t>
+  </si>
+  <si>
+    <t>Отец? У меня один вопрос. Как ты так легко выговариваешь его имя? Грау-о-ло-ло… Гру-ла-ла-лала-фор… Рау-гала-фил… Тьфу. Язык сломаешь.</t>
+  </si>
+  <si>
+    <t>Мне кажется, что во всём виноват писарь. Он просто не смог правильно записать моё имя.</t>
+  </si>
+  <si>
+    <t>Основатель? В наших старинных свёртках вы записаны по другому. Вас все знают под именем Карлос.</t>
+  </si>
+  <si>
+    <t>Наверное из-за невозможности их записать имена и поменялись.</t>
+  </si>
+  <si>
+    <t>Рад, что вы так быстро поладили.</t>
+  </si>
+  <si>
+    <t>Инесса! Я надеюсь, что ближайшие пару часов ты не покинешь стен ордена и успешно сдашь экзамен.</t>
+  </si>
+  <si>
+    <t>А теперь, я вынужден откланяться. Мне надо срочно идти открывать портал.</t>
+  </si>
+  <si>
+    <t>Sullenly</t>
+  </si>
+  <si>
+    <t>Странно что архимагистр лично занимается открытием портала. Работа не по должности ведь.</t>
+  </si>
+  <si>
+    <t>Ну ладно. К экзамену готов? Вопросы есть?</t>
+  </si>
+  <si>
+    <t>А вот и утро. Ну чтож, пора на экзамен.</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Спросить череп о заклинании бессмертия</t>
+  </si>
+  <si>
+    <t>Спросить о жизни черепа до бессмертия</t>
+  </si>
+  <si>
+    <t>О нет! Я ещё на 27-ом году погребения пообещал себе, что никому и никогда не расскажу о этом заклинании!</t>
+  </si>
+  <si>
+    <t>Если у тебя будет пара свободных лет, чтобы выслушать историю моей жизни, то я с радостью тебе всё расскажу! И о том, как  я сражался с драконами, и о том как перевернул горы, и о том как уничтожил измерение с демонами! НО! Я профессионал, поэтому сперва я приму у тебя экзамен, а потом может-быть ты удостоишься беседы со мной, недоросль.</t>
+  </si>
+  <si>
+    <t>Давайте начнём экзамен.</t>
+  </si>
+  <si>
+    <t>Да начнётся экзамен на Магистра Ордена Познающих! Время пошло!</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Мне кажется, я видел шпаргалку. Закатай как левый рукав.</t>
+  </si>
+  <si>
+    <t>Хм, невероятно! Если вы списывали, значит вам потребуется минимум еще года три, чтобы как следует подготовиться к этому экзамену! Плохо! Очень плохо, я разочарован! Незачет!</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Аngry</t>
+  </si>
+  <si>
+    <t>Давай проверим твои ответы.</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Info book</t>
+  </si>
+  <si>
+    <t>Ах! Архимагистр! Здравствуйте! Вижу вы даёте наставления дочери перед её экзаменом. Как мило. Но, разве это так нужно? Уж своему отцу она то легко сдаст экзамен.</t>
+  </si>
+  <si>
+    <t>А не надо зевать, юная леди. Вот для меня этот экзамен был действительно сложным. Помню как не мог его сдать 3 раза.</t>
+  </si>
+  <si>
+    <t>Ну более-менее. Хотя, мы же с тобой понимаем, что теория совершенно не показатель. Настоящий экзамен это демонстрация практических навыков!</t>
+  </si>
+  <si>
+    <t>Вот тебе кристаллик флюорита и перо. Да да, этот кристалл является основой всех порталов. Цель экзамена - с помощью кристаллика телепортировать вот это перо. Скажем... на соседний стол.</t>
+  </si>
+  <si>
+    <t>Ну что за детская задачка?! Я уже три года в библиотеке разрабатываю схему постройки настоящего портала! А вы мне предлагаете перо телепортировать?</t>
   </si>
 </sst>
 </file>
@@ -403,7 +517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +760,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +951,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -855,6 +981,24 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1197,13 +1341,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1316,11 +1460,14 @@
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>13</v>
@@ -1333,6 +1480,9 @@
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1344,11 +1494,14 @@
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>13</v>
@@ -1372,6 +1525,9 @@
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1379,7 +1535,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>14</v>
@@ -1393,10 +1549,10 @@
         <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>14</v>
@@ -1415,7 +1571,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1434,7 +1590,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1445,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1456,34 +1612,40 @@
         <v>21</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,369 +1656,688 @@
         <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
         <v>1.2</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="E26" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F42" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="F43" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="6" t="s">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F45" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>18</v>
+      <c r="F52" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E61" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="E70" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1868,25 +2349,25 @@
           <x14:formula1>
             <xm:f>List!$D$3:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E23:E24 E26 E4:E21 E28:E55</xm:sqref>
+          <xm:sqref>E23:E24 E27 E4:E21 E29:E69 E71:E77</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B55</xm:sqref>
+          <xm:sqref>B4:B77</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C55</xm:sqref>
+          <xm:sqref>C4:C77</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$B$3:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D55</xm:sqref>
+          <xm:sqref>D4:D77</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1899,7 +2380,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1928,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
@@ -1939,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>22</v>
@@ -1947,7 +2428,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>24</v>
@@ -1955,7 +2436,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>23</v>
@@ -1963,7 +2444,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>25</v>
@@ -1971,7 +2452,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>26</v>
@@ -1979,28 +2460,40 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
       <c r="D11" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
       <c r="D12" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
       <c r="D13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
@@ -2012,7 +2505,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/_Story/Part 1/Act1.xlsx
+++ b/_Story/Part 1/Act1.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Act1" sheetId="1" r:id="rId1"/>
-    <sheet name="List" sheetId="2" r:id="rId2"/>
+    <sheet name="Act2" sheetId="3" r:id="rId2"/>
+    <sheet name="List" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="199">
   <si>
     <t>Center</t>
   </si>
@@ -157,9 +158,6 @@
     <t>Ага… Интересно, а ему как? Нравится "справляться с бумажками"?</t>
   </si>
   <si>
-    <t>Mag</t>
-  </si>
-  <si>
     <t>Ой! Извините мне уже пора. Надо готовиться к... очень важдому событию.</t>
   </si>
   <si>
@@ -374,6 +372,255 @@
   </si>
   <si>
     <t>Ну что за детская задачка?! Я уже три года в библиотеке разрабатываю схему постройки настоящего портала! А вы мне предлагаете перо телепортировать?</t>
+  </si>
+  <si>
+    <t>Тупенький юнец! Ты хоть знаешь сколько учёных и инженеров пытались повторить постройку портала? Это невозможно! Порталы могли строить только древние! Ныне умения строить порталы безвозвратно утеряны!</t>
+  </si>
+  <si>
+    <t>Я изучал отчеты тех кто пытался строить порталы, благо все они аккуратно хранятся в нашей библиотеке. И везде, во всех расчетах, предполагалось, что порталы не будут двигаться. Однако, если представить, что порталы не стоят на месте, а перемещаются в каком-то невидимом поле, то можно соединиться с соседними построенными порталами безопасным туннелем! Только посмотрите на мои расчёты! Они лежат на моём рабочем столе в архиве библиотеки.</t>
+  </si>
+  <si>
+    <t>Если порталы действительно перемещаются, то я балерина! Что за вздор! Это настолько смешно, что я даже соглашусь взглянуть на твои формулы!</t>
+  </si>
+  <si>
+    <t>Но поскольку я профессионал, то сделаем мы это только после экзамена!</t>
+  </si>
+  <si>
+    <t>Да как эта летающая кочерыжка смеет так не уважительно относиться ко мне? Надо ему показать, что я на самом деле могу!</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>Показать мощь и переместить перо в соседнюю деревню</t>
+  </si>
+  <si>
+    <t>Устроить фейерверк</t>
+  </si>
+  <si>
+    <t>Успокоиться и переместить перо на соседний стол</t>
+  </si>
+  <si>
+    <t>По всему кабинету начинают летать хлопушки. Разноцветные взрывы устроили настоящее светошоу. Череп от неожиданность даже спрятался за ближайший стул.</t>
+  </si>
+  <si>
+    <t>Стой! Хватит! Вижу ты настоящий бунтарь и любишь пробовать что-то новое. Прямо как я до своего преображения.</t>
+  </si>
+  <si>
+    <t>1.4.1b</t>
+  </si>
+  <si>
+    <t>1.4.1a</t>
+  </si>
+  <si>
+    <t>Впечатляет! Не ожидал, что увижу подобный фокус!</t>
+  </si>
+  <si>
+    <t>Что такое? Не получается?</t>
+  </si>
+  <si>
+    <t>Камень флюорита ярко засветился. Перо медленно и с шипением исчезло.</t>
+  </si>
+  <si>
+    <t>Что то не так! Телепортация по другому рабо....</t>
+  </si>
+  <si>
+    <t>Bewilderment</t>
+  </si>
+  <si>
+    <t>Улыбка</t>
+  </si>
+  <si>
+    <t>Глум</t>
+  </si>
+  <si>
+    <t>Страх</t>
+  </si>
+  <si>
+    <t>Мечтательность</t>
+  </si>
+  <si>
+    <t>Безнадёга</t>
+  </si>
+  <si>
+    <t>Сомнения</t>
+  </si>
+  <si>
+    <t>Удивление</t>
+  </si>
+  <si>
+    <t>Недоумение</t>
+  </si>
+  <si>
+    <t>Неопределенность</t>
+  </si>
+  <si>
+    <t>Отвращение</t>
+  </si>
+  <si>
+    <t>Угрюмость</t>
+  </si>
+  <si>
+    <t>Злость</t>
+  </si>
+  <si>
+    <t>Спокойствие</t>
+  </si>
+  <si>
+    <t>Вдруг всё здание сильно тряхнуло! Несколько случайных объектов, так же как и перо, стали с шипением телепортироваться. В коридорах ордена послышалась возрастающая паника!</t>
+  </si>
+  <si>
+    <t>Инесса? Ты чего наделала?</t>
+  </si>
+  <si>
+    <t>Всё стихло. Лишь удивлённые маги в коридоре пытались понять, что произошло.</t>
+  </si>
+  <si>
+    <t>Конечно это была я! Я всегда знала, что обладаю особенной силой.</t>
+  </si>
+  <si>
+    <t>Это не я! ...Или я??..</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Гордость</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>ГОРОДСКОЙ ПОРТАЛ!</t>
+  </si>
+  <si>
+    <t>!!!</t>
+  </si>
+  <si>
+    <t>ГОРОДСКОЙ ПОРТАЛ ВЗОРВАЛСЯ!!!</t>
+  </si>
+  <si>
+    <t>Маг убежал дальше по коридору врываясь в аудитории и повторяя свои слова.</t>
+  </si>
+  <si>
+    <t>Стой! Там же у портала мой отец! С ним всё в порядке?</t>
+  </si>
+  <si>
+    <t>Я изо всех сил побежала к окну, из которого можно было увидеть городской портал. Там уже столпилась толпа любопытствующих. Не слишком церемонясь, я проталкалась до окна.</t>
+  </si>
+  <si>
+    <t>Боже! Портала действительно больше нет! И самое чудовищное, что открывать его мог только мой отец.</t>
+  </si>
+  <si>
+    <t>Слёзы наворачивались на глаза. Сердце вдруг очень сильно заболело.</t>
+  </si>
+  <si>
+    <t>Scene The destroyed Portal</t>
+  </si>
+  <si>
+    <t>Что произошло?! Надо срочно туда добраться!</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>Прыгнуть прямо из окна и сколдовать "мягкое приземление"</t>
+  </si>
+  <si>
+    <t>Не тупить и бежать по лестнице.</t>
+  </si>
+  <si>
+    <t>1.5.1b</t>
+  </si>
+  <si>
+    <t>Screen Black</t>
+  </si>
+  <si>
+    <t>Scene Town Portal</t>
+  </si>
+  <si>
+    <t>Несясь по улицам к порталу, я краем глаза заметила, что некоторые камни из дороги исчезли. Может они тоже телепортировались?</t>
+  </si>
+  <si>
+    <t>Наконец я добежала к порталу. Воронка уже была окружена городской стражей. Очень ровный круг стражников стоял ограждая место происшествия от любых зевак.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tears </t>
+  </si>
+  <si>
+    <t>Слёзы</t>
+  </si>
+  <si>
+    <t>Пустите меня! Там мой отец!</t>
+  </si>
+  <si>
+    <t>Приказано никого не пускать!</t>
+  </si>
+  <si>
+    <t>Хм! А ты случайно не Инесса? Дочь сэра Кристофера Манна?</t>
+  </si>
+  <si>
+    <t>Несколько похожих друг-на-друга стражников повернулись в мою сторону. И взгляд у них был не очень. Интуиция подсказывала, что что-то тут не так...</t>
+  </si>
+  <si>
+    <t>Сваливай отсюда, пока не арестовали! Не мешай работать!</t>
+  </si>
+  <si>
+    <t>Нет... А вы моего отца не видели? Он такой… Ну в сером плаще…</t>
+  </si>
+  <si>
+    <t>Странно, но после моих слов, стражники сразу потеряли ко мне интерес.</t>
+  </si>
+  <si>
+    <t>Я послушно отошла от стражника. Голова расскалывалась от вопросов, на которые никто не мог ответить.</t>
+  </si>
+  <si>
+    <t>Нигде вокруг не было видно отца. Где он?</t>
+  </si>
+  <si>
+    <t>Инесса разбилась насмерть. Достаточно обидная смерть…</t>
+  </si>
+  <si>
+    <t>Может с отцом всё в порядке? Может я зря тут волнуюсь? Может он сейчас ищет меня в здании ордена? Находясь тут я ничего не узнаю, надо вернуться в библиотеку.</t>
+  </si>
+  <si>
+    <t>Главный портал страны просто исчез. На его месте осталась только воронка. Никто не знает, что случилось. Вся столица на ушах. Не понятно как теперь торговать и путешествовать. Зачем теперь людям жить в столице, если никто и никогда не сможет починить или построить новый портал? Королева просто в ярости! И чем теперь заниматься целому ордену познающих?</t>
+  </si>
+  <si>
+    <t>Вы знаете где Архимагистр?</t>
+  </si>
+  <si>
+    <t>Никто не видел моего отца?</t>
+  </si>
+  <si>
+    <t>…ага…</t>
+  </si>
+  <si>
+    <t>Все встреченные люди отвечали, что не знают где он или где его искать.</t>
+  </si>
+  <si>
+    <t>Scene The General Hall of the Order</t>
+  </si>
+  <si>
+    <t>Это общий сбор. Сейчас будет важное сообщение. Пойдём. Сейчас, наверное, нам расскажут, что случилось.</t>
+  </si>
+  <si>
+    <t>В стенах ордена зазвенел колокол. Все работники, ученики, маги и магистры пошли в главный зал.</t>
+  </si>
+  <si>
+    <t>ВНИМАНИЕ! ВНИМАНИЕ! Слушайте меня!</t>
+  </si>
+  <si>
+    <t>Сегодня случилась трагедия! Наш бесценный портал был разрушен. Это огромная потеря для всего королевства. Теперь мы не можем поддерживать нашу армию в войне с орками. И виноват во всём наш бывший архимагистр Кристофер Манн! Из-за его профнепригодности он не смог правильно произнести заклинание открытия портала. Я, как новый архимагистр, отстраняю Кристоффера Манна от должности!</t>
   </si>
 </sst>
 </file>
@@ -951,7 +1198,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -998,6 +1245,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1341,13 +1591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1461,13 +1711,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>13</v>
@@ -1481,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -1495,13 +1745,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>13</v>
@@ -1526,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
@@ -1549,7 +1799,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>39</v>
@@ -1620,13 +1870,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1634,18 +1884,18 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1656,29 +1906,29 @@
         <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1686,7 +1936,7 @@
         <v>1.2</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,7 +1947,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,13 +1976,13 @@
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1740,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1757,7 +2007,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,7 +2018,7 @@
         <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1776,13 +2026,13 @@
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1790,13 +2040,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,13 +2054,13 @@
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1818,13 +2068,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,13 +2085,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,13 +2099,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1863,18 +2113,18 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F42" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1882,13 +2132,13 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,7 +2149,7 @@
         <v>21</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1910,7 +2160,7 @@
         <v>21</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1922,13 +2172,13 @@
         <v>2</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1937,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>18</v>
@@ -1949,13 +2199,13 @@
         <v>1</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1964,13 +2214,13 @@
         <v>2</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1981,7 +2231,7 @@
         <v>21</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1992,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2003,7 +2253,7 @@
         <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2015,13 +2265,13 @@
         <v>2</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2033,16 +2283,16 @@
         <v>2</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2054,13 +2304,13 @@
         <v>2</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2069,13 +2319,13 @@
         <v>2</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2086,7 +2336,7 @@
         <v>21</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2109,7 +2359,7 @@
         <v>21</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2117,13 +2367,13 @@
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2139,13 +2389,13 @@
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2156,12 +2406,12 @@
         <v>22</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>2</v>
@@ -2170,7 +2420,7 @@
         <v>18</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2178,18 +2428,18 @@
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>2</v>
@@ -2198,7 +2448,7 @@
         <v>18</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -2206,18 +2456,18 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>2</v>
@@ -2226,7 +2476,7 @@
         <v>18</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2237,13 +2487,13 @@
         <v>22</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="E70" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2266,24 +2516,24 @@
         <v>22</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2292,18 +2542,18 @@
         <v>1</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>1</v>
@@ -2312,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -2323,7 +2573,7 @@
         <v>22</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2331,13 +2581,536 @@
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F83" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F88" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F93" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F95" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F101" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E108" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F109" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F110" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F116" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E123" s="18"/>
+      <c r="F123" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D124" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F125" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F127" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F128" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2349,25 +3122,25 @@
           <x14:formula1>
             <xm:f>List!$D$3:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E23:E24 E27 E4:E21 E29:E69 E71:E77</xm:sqref>
+          <xm:sqref>E23:E24 E27 E4:E21 E29:E69 E71:E92 E94 E96:E106 E117:E120 E122:E126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B77</xm:sqref>
+          <xm:sqref>B4:B92 B94 B96:B106 B117:B120 B122:B123 B126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C77</xm:sqref>
+          <xm:sqref>C4:C92 C94 C96:C106 C117:C120 C122:C123 C126</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>List!$B$3:$B$16</xm:f>
+            <xm:f>List!$B$3:$B$32</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D77</xm:sqref>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2377,20 +3150,316 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="17" style="23" customWidth="1"/>
+    <col min="6" max="8" width="50.7109375" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$B$3:$B$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$A$4:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$A$3:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$D$3:$D$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E6 E8:E10 E12:E19</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -2400,6 +3469,9 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2409,7 +3481,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
@@ -2420,7 +3495,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>22</v>
@@ -2428,7 +3506,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>24</v>
@@ -2436,7 +3517,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>23</v>
@@ -2444,7 +3528,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>25</v>
@@ -2452,7 +3539,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>26</v>
@@ -2460,7 +3550,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>27</v>
@@ -2468,7 +3561,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>28</v>
@@ -2476,7 +3572,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>29</v>
@@ -2484,7 +3583,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -2492,20 +3594,43 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>108</v>
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
